--- a/BMS_miRNAs.xlsx
+++ b/BMS_miRNAs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Aktuell\Eigene Dateien\Eigene Dateien_Sarah\R\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Labor\R\Github\BMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2ECE16-3F43-41FB-AD8C-D54D7080EB6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="470">
   <si>
     <t>BXT</t>
   </si>
@@ -978,12 +979,465 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>BuSc190743</t>
+  </si>
+  <si>
+    <t>Ipi+Nivo</t>
+  </si>
+  <si>
+    <t>2nd Cycle</t>
+  </si>
+  <si>
+    <t>3rd Cycle</t>
+  </si>
+  <si>
+    <t>4th Cycle</t>
+  </si>
+  <si>
+    <t>5th Cycle</t>
+  </si>
+  <si>
+    <t>10th Cycle</t>
+  </si>
+  <si>
+    <t>ClKl181146</t>
+  </si>
+  <si>
+    <t>6th Cycle</t>
+  </si>
+  <si>
+    <t>7th Cycle</t>
+  </si>
+  <si>
+    <t>8th Cycle</t>
+  </si>
+  <si>
+    <t>9th cycle</t>
+  </si>
+  <si>
+    <t>DeJa130181</t>
+  </si>
+  <si>
+    <t>GeLe160536</t>
+  </si>
+  <si>
+    <t>HeSc260263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipi+Nivo </t>
+  </si>
+  <si>
+    <t>KaHa220538</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>BXT_0140_0</t>
+  </si>
+  <si>
+    <t>KaMä140846</t>
+  </si>
+  <si>
+    <t>KlGo110837</t>
+  </si>
+  <si>
+    <t>MP0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Cycle </t>
+  </si>
+  <si>
+    <t>MP0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivo </t>
+  </si>
+  <si>
+    <t>MP0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD </t>
+  </si>
+  <si>
+    <t>BXT_0141_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tx </t>
+  </si>
+  <si>
+    <t>N1b(1/9 )</t>
+  </si>
+  <si>
+    <t>5,7x4x4cm</t>
+  </si>
+  <si>
+    <t>BXT_0142_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1b  </t>
+  </si>
+  <si>
+    <t>BXT_0143_0</t>
+  </si>
+  <si>
+    <t>N1(sn )</t>
+  </si>
+  <si>
+    <t>BXT_0144_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N0 (sn 0/1) </t>
+  </si>
+  <si>
+    <t>BXT_0146_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pT4a </t>
+  </si>
+  <si>
+    <t>BXT_0147_0</t>
+  </si>
+  <si>
+    <t>BXT_0148_0</t>
+  </si>
+  <si>
+    <t>N2b</t>
+  </si>
+  <si>
+    <t>MP0011</t>
+  </si>
+  <si>
+    <t>MP0015</t>
+  </si>
+  <si>
+    <t>MP0018</t>
+  </si>
+  <si>
+    <t>MP0023</t>
+  </si>
+  <si>
+    <t>WaLo140344</t>
+  </si>
+  <si>
+    <t>1. Gabe Paclitaxel</t>
+  </si>
+  <si>
+    <t>Paclitaxel</t>
+  </si>
+  <si>
+    <t>WeMü190841</t>
+  </si>
+  <si>
+    <t>11th Cycle</t>
+  </si>
+  <si>
+    <t>13th Cycle</t>
+  </si>
+  <si>
+    <t>15th Cycle</t>
+  </si>
+  <si>
+    <t>BXT_0149_0_IA</t>
+  </si>
+  <si>
+    <t>T3b</t>
+  </si>
+  <si>
+    <t>N1b(1/8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baseline</t>
+  </si>
+  <si>
+    <t>BXT_0150_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1a </t>
+  </si>
+  <si>
+    <t>BXT_0151_0</t>
+  </si>
+  <si>
+    <t>(?)+1,2</t>
+  </si>
+  <si>
+    <t>BXT_0154_0</t>
+  </si>
+  <si>
+    <t>unbek.</t>
+  </si>
+  <si>
+    <t>BXT_0156_0</t>
+  </si>
+  <si>
+    <t>BXT_0158_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1 </t>
+  </si>
+  <si>
+    <t>BXT_0159_0</t>
+  </si>
+  <si>
+    <t>BXT_0161_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M0 </t>
+  </si>
+  <si>
+    <t>BXT_0163_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4b </t>
+  </si>
+  <si>
+    <t>WePo130148</t>
+  </si>
+  <si>
+    <t>9th Cycle</t>
+  </si>
+  <si>
+    <t>12th Cycle</t>
+  </si>
+  <si>
+    <t>AnBr200966</t>
+  </si>
+  <si>
+    <t>AnBu260259</t>
+  </si>
+  <si>
+    <t>ChGr300474</t>
+  </si>
+  <si>
+    <t>IPi+Nivo</t>
+  </si>
+  <si>
+    <t>ElKr060467</t>
+  </si>
+  <si>
+    <t>FlBe010889</t>
+  </si>
+  <si>
+    <t>HaRa090641</t>
+  </si>
+  <si>
+    <t>JuDi130157</t>
+  </si>
+  <si>
+    <t>KeWo200762</t>
+  </si>
+  <si>
+    <t>MP0002</t>
+  </si>
+  <si>
+    <t>MP0004</t>
+  </si>
+  <si>
+    <t>MP0006</t>
+  </si>
+  <si>
+    <t>MP0007</t>
+  </si>
+  <si>
+    <t>MP0009</t>
+  </si>
+  <si>
+    <t>MP0013</t>
+  </si>
+  <si>
+    <t>MP0014</t>
+  </si>
+  <si>
+    <t>unbekannt</t>
+  </si>
+  <si>
+    <t>MP0016</t>
+  </si>
+  <si>
+    <t>MP0020</t>
+  </si>
+  <si>
+    <t>MP0021</t>
+  </si>
+  <si>
+    <t>MP0026</t>
+  </si>
+  <si>
+    <t>MP0027</t>
+  </si>
+  <si>
+    <t>NaWe110798</t>
+  </si>
+  <si>
+    <t>RoLe101036</t>
+  </si>
+  <si>
+    <t>SuBö090383</t>
+  </si>
+  <si>
+    <t>RiSc250251</t>
+  </si>
+  <si>
+    <t>ArHa280882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16th Cycle </t>
+  </si>
+  <si>
+    <t>BXT_0107_0</t>
+  </si>
+  <si>
+    <t>N1a(1/B)(sn )</t>
+  </si>
+  <si>
+    <t>BXT_0157_0</t>
+  </si>
+  <si>
+    <t>BXT_0164_0</t>
+  </si>
+  <si>
+    <t>BXT_0165_0</t>
+  </si>
+  <si>
+    <t>BXT_0166_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N0(sn) </t>
+  </si>
+  <si>
+    <t>BXT_0167_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1a </t>
+  </si>
+  <si>
+    <t>BXT_0170_0</t>
+  </si>
+  <si>
+    <t>BXT_0171_0</t>
+  </si>
+  <si>
+    <t>BXT_0182_0</t>
+  </si>
+  <si>
+    <t>pT1b</t>
+  </si>
+  <si>
+    <t>BXT_0184_0</t>
+  </si>
+  <si>
+    <t>pN0sn(0/2)</t>
+  </si>
+  <si>
+    <t>BXT_0186_0</t>
+  </si>
+  <si>
+    <t>IIID</t>
+  </si>
+  <si>
+    <t>BXT_0188_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1b </t>
+  </si>
+  <si>
+    <t>BXT_0189_0</t>
+  </si>
+  <si>
+    <t>pN1c</t>
+  </si>
+  <si>
+    <t>BXT_0190_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1c </t>
+  </si>
+  <si>
+    <t>BXT_200_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0  </t>
+  </si>
+  <si>
+    <t>BXT_0174_0</t>
+  </si>
+  <si>
+    <t>BXT_0191_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pN3c (3/21) </t>
+  </si>
+  <si>
+    <t>BXT_0024_1_PD</t>
+  </si>
+  <si>
+    <t>N1b (1/6)</t>
+  </si>
+  <si>
+    <t>BXT_0018_1_GM</t>
+  </si>
+  <si>
+    <t>N2b (3/9)</t>
+  </si>
+  <si>
+    <t>2. Gabe</t>
+  </si>
+  <si>
+    <t>BXT_0160_0_IA</t>
+  </si>
+  <si>
+    <t>BXT_0153_0</t>
+  </si>
+  <si>
+    <t>N2b(2/14)</t>
+  </si>
+  <si>
+    <t>BXT_0145_0</t>
+  </si>
+  <si>
+    <t>65. Gabe</t>
+  </si>
+  <si>
+    <t>BXT_0126_0</t>
+  </si>
+  <si>
+    <t>59. Gabe</t>
+  </si>
+  <si>
+    <t>BXT_0199_0</t>
+  </si>
+  <si>
+    <t>&lt;0,6</t>
+  </si>
+  <si>
+    <t>folgt</t>
+  </si>
+  <si>
+    <t>BXT_0201_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>n.angefordert</t>
+  </si>
+  <si>
+    <t>BXT_0016_1_BMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,13 +1475,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1118,6 +1573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1153,6 +1625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1328,22 +1817,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CC247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:R247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +2077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1827,7 +2316,7 @@
         <v>3601.47</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2558,7 @@
         <v>2112.16</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2311,7 +2800,7 @@
         <v>2325.04</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2538,7 +3027,7 @@
         <v>3204.54</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -2765,7 +3254,7 @@
         <v>4003.04</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -2998,7 +3487,7 @@
         <v>3392.16</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3219,7 +3708,7 @@
         <v>2539.89</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3458,7 +3947,7 @@
         <v>2651.34</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -3679,7 +4168,7 @@
         <v>2787.28</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -3912,7 +4401,7 @@
         <v>4474.01</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -4145,7 +4634,7 @@
         <v>3803.14</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -4387,7 +4876,7 @@
         <v>2280.31</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -4620,7 +5109,7 @@
         <v>3288.79</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4850,7 +5339,7 @@
         <v>2621.58</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -5089,7 +5578,7 @@
         <v>136.04</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -5316,7 +5805,7 @@
         <v>2631.29</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -5549,7 +6038,7 @@
         <v>3510.21</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -5785,7 +6274,7 @@
         <v>991.25</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -6015,7 +6504,7 @@
         <v>3224.36</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -6257,7 +6746,7 @@
         <v>2590.46</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -6490,7 +6979,7 @@
         <v>3092.05</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -6729,7 +7218,7 @@
         <v>2440.66</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -6971,7 +7460,7 @@
         <v>2120.42</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -7201,7 +7690,7 @@
         <v>2793.56</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -7431,7 +7920,7 @@
         <v>3858.12</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -7649,7 +8138,7 @@
         <v>2535.63</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -7876,7 +8365,7 @@
         <v>3690.98</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -8100,7 +8589,7 @@
         <v>2108.7199999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -8330,7 +8819,7 @@
         <v>2851.71</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -8551,7 +9040,7 @@
         <v>2362.6</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -8769,7 +9258,7 @@
         <v>2300.33</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -8990,7 +9479,7 @@
         <v>3112.55</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -9217,7 +9706,7 @@
         <v>2347.9899999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -9447,7 +9936,7 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -9665,7 +10154,7 @@
         <v>2391.65</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>186</v>
       </c>
@@ -9883,7 +10372,7 @@
         <v>1139.18</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -10110,7 +10599,7 @@
         <v>2016.24</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -10340,7 +10829,7 @@
         <v>2215.56</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -10573,7 +11062,7 @@
         <v>1127.1300000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -10794,7 +11283,7 @@
         <v>2195.67</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -11018,7 +11507,7 @@
         <v>2375.06</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -11251,7 +11740,7 @@
         <v>2181.29</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -11478,7 +11967,7 @@
         <v>1555.8</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -11699,7 +12188,7 @@
         <v>969.86</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -11926,7 +12415,7 @@
         <v>949.51</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>210</v>
       </c>
@@ -12159,7 +12648,7 @@
         <v>1203.4100000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>302</v>
       </c>
@@ -12401,7 +12890,7 @@
         <v>2635.11</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -12643,7 +13132,7 @@
         <v>1950.34</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -12867,7 +13356,7 @@
         <v>2057.27</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -13100,7 +13589,7 @@
         <v>1649.44</v>
       </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -13339,7 +13828,7 @@
         <v>2376.29</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>220</v>
       </c>
@@ -13581,7 +14070,7 @@
         <v>1679.07</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -13820,7 +14309,7 @@
         <v>2349.71</v>
       </c>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -14053,7 +14542,7 @@
         <v>6069.3</v>
       </c>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>303</v>
       </c>
@@ -14295,7 +14784,7 @@
         <v>3186.28</v>
       </c>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -14540,7 +15029,7 @@
         <v>1961.92</v>
       </c>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -14776,7 +15265,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -15009,7 +15498,7 @@
         <v>2908.78</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>237</v>
       </c>
@@ -15239,7 +15728,7 @@
         <v>2899.03</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -15460,7 +15949,7 @@
         <v>1581.41</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>239</v>
       </c>
@@ -15690,7 +16179,7 @@
         <v>2142.13</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>240</v>
       </c>
@@ -15923,7 +16412,7 @@
         <v>2526.23</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -16156,7 +16645,7 @@
         <v>2891.25</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>243</v>
       </c>
@@ -16377,7 +16866,7 @@
         <v>1604.7</v>
       </c>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>244</v>
       </c>
@@ -16607,7 +17096,7 @@
         <v>2785.54</v>
       </c>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>246</v>
       </c>
@@ -16828,7 +17317,7 @@
         <v>2766.81</v>
       </c>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -17061,7 +17550,7 @@
         <v>2236.63</v>
       </c>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>252</v>
       </c>
@@ -17291,7 +17780,7 @@
         <v>2409.21</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -17524,7 +18013,7 @@
         <v>2027.69</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>256</v>
       </c>
@@ -17757,7 +18246,7 @@
         <v>1964.59</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>257</v>
       </c>
@@ -17993,7 +18482,7 @@
         <v>2209.94</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -18217,7 +18706,7 @@
         <v>2783.91</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>261</v>
       </c>
@@ -18441,7 +18930,7 @@
         <v>2547.17</v>
       </c>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -18665,7 +19154,7 @@
         <v>3825.3</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -18898,7 +19387,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>266</v>
       </c>
@@ -19122,7 +19611,7 @@
         <v>2038.43</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>304</v>
       </c>
@@ -19346,7 +19835,7 @@
         <v>3099.35</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>273</v>
       </c>
@@ -19585,7 +20074,7 @@
         <v>2636.1</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>276</v>
       </c>
@@ -19818,7 +20307,7 @@
         <v>2141.9</v>
       </c>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -20051,7 +20540,7 @@
         <v>2465.34</v>
       </c>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>285</v>
       </c>
@@ -20284,7 +20773,7 @@
         <v>4336.03</v>
       </c>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -20520,7 +21009,7 @@
         <v>-6.89</v>
       </c>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>289</v>
       </c>
@@ -20759,7 +21248,7 @@
         <v>243.09</v>
       </c>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>291</v>
       </c>
@@ -20992,7 +21481,7 @@
         <v>1652.69</v>
       </c>
     </row>
-    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>292</v>
       </c>
@@ -21228,7 +21717,7 @@
         <v>2208.63</v>
       </c>
     </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -21470,7 +21959,7 @@
         <v>2384.11</v>
       </c>
     </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>295</v>
       </c>
@@ -21712,7 +22201,7 @@
         <v>2246.9299999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>297</v>
       </c>
@@ -21954,7 +22443,7 @@
         <v>1853.28</v>
       </c>
     </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>299</v>
       </c>
@@ -22193,7 +22682,7 @@
         <v>3660.85</v>
       </c>
     </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>300</v>
       </c>
@@ -22430,6 +22919,5202 @@
       </c>
       <c r="CC91">
         <v>2119.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>319</v>
+      </c>
+      <c r="B92">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" t="s">
+        <v>320</v>
+      </c>
+      <c r="L92" s="1">
+        <v>43820</v>
+      </c>
+      <c r="N92">
+        <v>9</v>
+      </c>
+      <c r="O92">
+        <v>342</v>
+      </c>
+      <c r="Q92">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s">
+        <v>84</v>
+      </c>
+      <c r="J93" t="s">
+        <v>321</v>
+      </c>
+      <c r="K93" t="s">
+        <v>320</v>
+      </c>
+      <c r="L93" s="1">
+        <v>43820</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94">
+        <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" t="s">
+        <v>322</v>
+      </c>
+      <c r="K94" t="s">
+        <v>320</v>
+      </c>
+      <c r="L94" s="1">
+        <v>43820</v>
+      </c>
+      <c r="N94">
+        <v>12</v>
+      </c>
+      <c r="O94">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B95">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95" t="s">
+        <v>323</v>
+      </c>
+      <c r="K95" t="s">
+        <v>320</v>
+      </c>
+      <c r="L95" s="1">
+        <v>43820</v>
+      </c>
+      <c r="R95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>319</v>
+      </c>
+      <c r="B96">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" t="s">
+        <v>84</v>
+      </c>
+      <c r="J96" t="s">
+        <v>324</v>
+      </c>
+      <c r="K96" t="s">
+        <v>213</v>
+      </c>
+      <c r="L96" s="1">
+        <v>43820</v>
+      </c>
+      <c r="N96">
+        <v>25</v>
+      </c>
+      <c r="O96">
+        <v>291</v>
+      </c>
+      <c r="R96" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" t="s">
+        <v>71</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" t="s">
+        <v>213</v>
+      </c>
+      <c r="L97" s="1">
+        <v>43820</v>
+      </c>
+      <c r="R97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98">
+        <v>71</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" t="s">
+        <v>86</v>
+      </c>
+      <c r="L98" s="1">
+        <v>43642</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>245</v>
+      </c>
+      <c r="Q98">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99">
+        <v>72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99" t="s">
+        <v>84</v>
+      </c>
+      <c r="J99" t="s">
+        <v>322</v>
+      </c>
+      <c r="K99" t="s">
+        <v>86</v>
+      </c>
+      <c r="L99" s="1">
+        <v>43642</v>
+      </c>
+      <c r="O99">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" t="s">
+        <v>323</v>
+      </c>
+      <c r="K100" t="s">
+        <v>86</v>
+      </c>
+      <c r="L100" s="1">
+        <v>43642</v>
+      </c>
+      <c r="O100">
+        <v>156</v>
+      </c>
+      <c r="Q100">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" t="s">
+        <v>324</v>
+      </c>
+      <c r="K101" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="1">
+        <v>43642</v>
+      </c>
+      <c r="O101">
+        <v>188</v>
+      </c>
+      <c r="Q101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B102">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" t="s">
+        <v>327</v>
+      </c>
+      <c r="K102" t="s">
+        <v>86</v>
+      </c>
+      <c r="L102" s="1">
+        <v>43642</v>
+      </c>
+      <c r="O102">
+        <v>161</v>
+      </c>
+      <c r="Q102">
+        <v>0.17</v>
+      </c>
+      <c r="R102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>326</v>
+      </c>
+      <c r="B103">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" t="s">
+        <v>328</v>
+      </c>
+      <c r="K103" t="s">
+        <v>320</v>
+      </c>
+      <c r="L103" s="1">
+        <v>43642</v>
+      </c>
+      <c r="O103">
+        <v>290</v>
+      </c>
+      <c r="Q103">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" t="s">
+        <v>329</v>
+      </c>
+      <c r="K104" t="s">
+        <v>320</v>
+      </c>
+      <c r="L104" s="1">
+        <v>43642</v>
+      </c>
+      <c r="N104">
+        <v>8.9</v>
+      </c>
+      <c r="O104">
+        <v>301</v>
+      </c>
+      <c r="Q104">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s">
+        <v>84</v>
+      </c>
+      <c r="I105" t="s">
+        <v>84</v>
+      </c>
+      <c r="J105" t="s">
+        <v>330</v>
+      </c>
+      <c r="K105" t="s">
+        <v>320</v>
+      </c>
+      <c r="L105" s="1">
+        <v>43642</v>
+      </c>
+      <c r="N105">
+        <v>13</v>
+      </c>
+      <c r="O105">
+        <v>332</v>
+      </c>
+      <c r="Q105">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="R105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106">
+        <v>37</v>
+      </c>
+      <c r="C106" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106" t="s">
+        <v>84</v>
+      </c>
+      <c r="J106" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" t="s">
+        <v>86</v>
+      </c>
+      <c r="N106">
+        <v>10</v>
+      </c>
+      <c r="O106">
+        <v>271</v>
+      </c>
+      <c r="Q106">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" t="s">
+        <v>84</v>
+      </c>
+      <c r="J107" t="s">
+        <v>321</v>
+      </c>
+      <c r="K107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108">
+        <v>37</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" t="s">
+        <v>84</v>
+      </c>
+      <c r="J108" t="s">
+        <v>322</v>
+      </c>
+      <c r="K108" t="s">
+        <v>86</v>
+      </c>
+      <c r="N108">
+        <v>51</v>
+      </c>
+      <c r="Q108">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109">
+        <v>38</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>85</v>
+      </c>
+      <c r="I109" t="s">
+        <v>84</v>
+      </c>
+      <c r="J109" t="s">
+        <v>323</v>
+      </c>
+      <c r="K109" t="s">
+        <v>86</v>
+      </c>
+      <c r="N109">
+        <v>27</v>
+      </c>
+      <c r="O109">
+        <v>275</v>
+      </c>
+      <c r="Q109">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="R109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110" t="s">
+        <v>84</v>
+      </c>
+      <c r="J110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K110" t="s">
+        <v>86</v>
+      </c>
+      <c r="L110" s="1">
+        <v>43502</v>
+      </c>
+      <c r="N110">
+        <v>7</v>
+      </c>
+      <c r="O110">
+        <v>216</v>
+      </c>
+      <c r="Q110">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111">
+        <v>81</v>
+      </c>
+      <c r="C111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>84</v>
+      </c>
+      <c r="I111" t="s">
+        <v>84</v>
+      </c>
+      <c r="J111" t="s">
+        <v>322</v>
+      </c>
+      <c r="K111" t="s">
+        <v>86</v>
+      </c>
+      <c r="L111" s="1">
+        <v>43502</v>
+      </c>
+      <c r="N111">
+        <v>24</v>
+      </c>
+      <c r="O111">
+        <v>294</v>
+      </c>
+      <c r="Q111">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>84</v>
+      </c>
+      <c r="I112" t="s">
+        <v>84</v>
+      </c>
+      <c r="J112" t="s">
+        <v>327</v>
+      </c>
+      <c r="K112" t="s">
+        <v>86</v>
+      </c>
+      <c r="L112" s="1">
+        <v>43502</v>
+      </c>
+      <c r="Q112">
+        <v>0.33</v>
+      </c>
+      <c r="R112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113">
+        <v>82</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>84</v>
+      </c>
+      <c r="I113" t="s">
+        <v>84</v>
+      </c>
+      <c r="J113" t="s">
+        <v>328</v>
+      </c>
+      <c r="K113" t="s">
+        <v>86</v>
+      </c>
+      <c r="L113" s="1">
+        <v>43502</v>
+      </c>
+      <c r="O113">
+        <v>195</v>
+      </c>
+      <c r="Q113">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114">
+        <v>82</v>
+      </c>
+      <c r="C114" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" t="s">
+        <v>84</v>
+      </c>
+      <c r="I114" t="s">
+        <v>84</v>
+      </c>
+      <c r="J114" t="s">
+        <v>329</v>
+      </c>
+      <c r="K114" t="s">
+        <v>86</v>
+      </c>
+      <c r="L114" s="1">
+        <v>43502</v>
+      </c>
+      <c r="N114">
+        <v>6</v>
+      </c>
+      <c r="O114">
+        <v>250</v>
+      </c>
+      <c r="Q114">
+        <v>0.34</v>
+      </c>
+      <c r="R114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>84</v>
+      </c>
+      <c r="I115" t="s">
+        <v>84</v>
+      </c>
+      <c r="J115" t="s">
+        <v>76</v>
+      </c>
+      <c r="K115" t="s">
+        <v>334</v>
+      </c>
+      <c r="L115" s="1">
+        <v>43943</v>
+      </c>
+      <c r="N115">
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116" t="s">
+        <v>84</v>
+      </c>
+      <c r="J116" t="s">
+        <v>321</v>
+      </c>
+      <c r="K116" t="s">
+        <v>320</v>
+      </c>
+      <c r="L116" s="1">
+        <v>43943</v>
+      </c>
+      <c r="N116">
+        <v>9</v>
+      </c>
+      <c r="O116">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117">
+        <v>55</v>
+      </c>
+      <c r="C117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H117" t="s">
+        <v>84</v>
+      </c>
+      <c r="I117" t="s">
+        <v>84</v>
+      </c>
+      <c r="J117" t="s">
+        <v>322</v>
+      </c>
+      <c r="K117" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117" s="1">
+        <v>43943</v>
+      </c>
+      <c r="N117">
+        <v>8</v>
+      </c>
+      <c r="O117">
+        <v>453</v>
+      </c>
+      <c r="Q117">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="R117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>335</v>
+      </c>
+      <c r="B118">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" t="s">
+        <v>71</v>
+      </c>
+      <c r="H118" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118" t="s">
+        <v>76</v>
+      </c>
+      <c r="K118" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118" s="1">
+        <v>43363</v>
+      </c>
+      <c r="N118" t="s">
+        <v>336</v>
+      </c>
+      <c r="O118">
+        <v>180</v>
+      </c>
+      <c r="Q118">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s">
+        <v>71</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" t="s">
+        <v>85</v>
+      </c>
+      <c r="J119" t="s">
+        <v>321</v>
+      </c>
+      <c r="K119" t="s">
+        <v>86</v>
+      </c>
+      <c r="L119" s="1">
+        <v>43363</v>
+      </c>
+      <c r="N119">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120" t="s">
+        <v>322</v>
+      </c>
+      <c r="K120" t="s">
+        <v>86</v>
+      </c>
+      <c r="L120" s="1">
+        <v>43363</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>215</v>
+      </c>
+      <c r="Q120">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>84</v>
+      </c>
+      <c r="I121" t="s">
+        <v>85</v>
+      </c>
+      <c r="J121" t="s">
+        <v>323</v>
+      </c>
+      <c r="K121" t="s">
+        <v>86</v>
+      </c>
+      <c r="L121" s="1">
+        <v>43363</v>
+      </c>
+      <c r="N121">
+        <v>18</v>
+      </c>
+      <c r="O121">
+        <v>226</v>
+      </c>
+      <c r="Q121">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="R121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>84</v>
+      </c>
+      <c r="I122" t="s">
+        <v>84</v>
+      </c>
+      <c r="K122" t="s">
+        <v>98</v>
+      </c>
+      <c r="M122">
+        <v>2.9</v>
+      </c>
+      <c r="N122">
+        <v>0.7</v>
+      </c>
+      <c r="O122">
+        <v>169</v>
+      </c>
+      <c r="P122">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>338</v>
+      </c>
+      <c r="B123">
+        <v>71</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123" t="s">
+        <v>85</v>
+      </c>
+      <c r="J123" t="s">
+        <v>76</v>
+      </c>
+      <c r="K123" t="s">
+        <v>213</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>338</v>
+      </c>
+      <c r="B124">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124" t="s">
+        <v>85</v>
+      </c>
+      <c r="J124" t="s">
+        <v>321</v>
+      </c>
+      <c r="K124" t="s">
+        <v>213</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>207</v>
+      </c>
+      <c r="Q124">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>338</v>
+      </c>
+      <c r="B125">
+        <v>71</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125" t="s">
+        <v>85</v>
+      </c>
+      <c r="J125" t="s">
+        <v>322</v>
+      </c>
+      <c r="K125" t="s">
+        <v>213</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126">
+        <v>72</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>84</v>
+      </c>
+      <c r="I126" t="s">
+        <v>85</v>
+      </c>
+      <c r="J126" t="s">
+        <v>323</v>
+      </c>
+      <c r="K126" t="s">
+        <v>213</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126">
+        <v>359</v>
+      </c>
+      <c r="Q126">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>338</v>
+      </c>
+      <c r="B127">
+        <v>72</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127" t="s">
+        <v>85</v>
+      </c>
+      <c r="J127" t="s">
+        <v>324</v>
+      </c>
+      <c r="K127" t="s">
+        <v>320</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <v>186</v>
+      </c>
+      <c r="Q127">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128">
+        <v>81</v>
+      </c>
+      <c r="C128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>85</v>
+      </c>
+      <c r="I128" t="s">
+        <v>84</v>
+      </c>
+      <c r="J128" t="s">
+        <v>76</v>
+      </c>
+      <c r="K128" t="s">
+        <v>213</v>
+      </c>
+      <c r="N128" t="s">
+        <v>336</v>
+      </c>
+      <c r="O128">
+        <v>267</v>
+      </c>
+      <c r="Q128">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>339</v>
+      </c>
+      <c r="B129">
+        <v>82</v>
+      </c>
+      <c r="C129" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" t="s">
+        <v>84</v>
+      </c>
+      <c r="J129" t="s">
+        <v>323</v>
+      </c>
+      <c r="K129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>340</v>
+      </c>
+      <c r="B130">
+        <v>96</v>
+      </c>
+      <c r="C130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" t="s">
+        <v>71</v>
+      </c>
+      <c r="H130" t="s">
+        <v>85</v>
+      </c>
+      <c r="I130" t="s">
+        <v>84</v>
+      </c>
+      <c r="J130" t="s">
+        <v>76</v>
+      </c>
+      <c r="K130" t="s">
+        <v>86</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130">
+        <v>397</v>
+      </c>
+      <c r="Q130">
+        <v>1.8640000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>340</v>
+      </c>
+      <c r="B131">
+        <v>96</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131" t="s">
+        <v>84</v>
+      </c>
+      <c r="J131" t="s">
+        <v>341</v>
+      </c>
+      <c r="K131" t="s">
+        <v>86</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <v>324</v>
+      </c>
+      <c r="Q131">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" t="s">
+        <v>84</v>
+      </c>
+      <c r="J132" t="s">
+        <v>324</v>
+      </c>
+      <c r="K132" t="s">
+        <v>86</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>340</v>
+      </c>
+      <c r="B133">
+        <v>96</v>
+      </c>
+      <c r="C133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133" t="s">
+        <v>84</v>
+      </c>
+      <c r="J133" t="s">
+        <v>327</v>
+      </c>
+      <c r="K133" t="s">
+        <v>86</v>
+      </c>
+      <c r="O133">
+        <v>405</v>
+      </c>
+      <c r="Q133">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="R133" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134">
+        <v>96</v>
+      </c>
+      <c r="C134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134" t="s">
+        <v>84</v>
+      </c>
+      <c r="J134" t="s">
+        <v>328</v>
+      </c>
+      <c r="K134" t="s">
+        <v>86</v>
+      </c>
+      <c r="O134">
+        <v>381</v>
+      </c>
+      <c r="Q134">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135">
+        <v>96</v>
+      </c>
+      <c r="C135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135" t="s">
+        <v>84</v>
+      </c>
+      <c r="J135" t="s">
+        <v>329</v>
+      </c>
+      <c r="K135" t="s">
+        <v>86</v>
+      </c>
+      <c r="N135">
+        <v>3.5</v>
+      </c>
+      <c r="O135">
+        <v>235</v>
+      </c>
+      <c r="Q135">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>340</v>
+      </c>
+      <c r="B136">
+        <v>96</v>
+      </c>
+      <c r="C136" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" t="s">
+        <v>84</v>
+      </c>
+      <c r="J136" t="s">
+        <v>330</v>
+      </c>
+      <c r="K136" t="s">
+        <v>86</v>
+      </c>
+      <c r="N136">
+        <v>96</v>
+      </c>
+      <c r="O136">
+        <v>332</v>
+      </c>
+      <c r="Q136">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="R136" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137">
+        <v>55</v>
+      </c>
+      <c r="C137" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>84</v>
+      </c>
+      <c r="I137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J137" t="s">
+        <v>76</v>
+      </c>
+      <c r="K137" t="s">
+        <v>320</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137">
+        <v>260</v>
+      </c>
+      <c r="Q137">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>342</v>
+      </c>
+      <c r="B138">
+        <v>55</v>
+      </c>
+      <c r="C138" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>84</v>
+      </c>
+      <c r="I138" t="s">
+        <v>85</v>
+      </c>
+      <c r="J138" t="s">
+        <v>321</v>
+      </c>
+      <c r="K138" t="s">
+        <v>320</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138">
+        <v>424</v>
+      </c>
+      <c r="Q138">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139">
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" t="s">
+        <v>84</v>
+      </c>
+      <c r="I139" t="s">
+        <v>85</v>
+      </c>
+      <c r="J139" t="s">
+        <v>322</v>
+      </c>
+      <c r="K139" t="s">
+        <v>320</v>
+      </c>
+      <c r="N139">
+        <v>11</v>
+      </c>
+      <c r="O139">
+        <v>424</v>
+      </c>
+      <c r="Q139">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140">
+        <v>55</v>
+      </c>
+      <c r="C140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I140" t="s">
+        <v>85</v>
+      </c>
+      <c r="J140" t="s">
+        <v>323</v>
+      </c>
+      <c r="K140" t="s">
+        <v>320</v>
+      </c>
+      <c r="N140">
+        <v>20</v>
+      </c>
+      <c r="O140">
+        <v>374</v>
+      </c>
+      <c r="Q140">
+        <v>0.03</v>
+      </c>
+      <c r="R140" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141">
+        <v>55</v>
+      </c>
+      <c r="C141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141" t="s">
+        <v>85</v>
+      </c>
+      <c r="J141" t="s">
+        <v>324</v>
+      </c>
+      <c r="K141" t="s">
+        <v>343</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141">
+        <v>273</v>
+      </c>
+      <c r="Q141">
+        <v>0.107</v>
+      </c>
+      <c r="R141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>344</v>
+      </c>
+      <c r="B142">
+        <v>51</v>
+      </c>
+      <c r="C142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142" t="s">
+        <v>84</v>
+      </c>
+      <c r="J142" t="s">
+        <v>76</v>
+      </c>
+      <c r="K142" t="s">
+        <v>320</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142">
+        <v>256</v>
+      </c>
+      <c r="Q142">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>344</v>
+      </c>
+      <c r="B143">
+        <v>51</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I143" t="s">
+        <v>84</v>
+      </c>
+      <c r="J143" t="s">
+        <v>321</v>
+      </c>
+      <c r="K143" t="s">
+        <v>320</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
+        <v>278</v>
+      </c>
+      <c r="Q143">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>344</v>
+      </c>
+      <c r="B144">
+        <v>51</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" t="s">
+        <v>84</v>
+      </c>
+      <c r="J144" t="s">
+        <v>322</v>
+      </c>
+      <c r="K144" t="s">
+        <v>320</v>
+      </c>
+      <c r="O144">
+        <v>301</v>
+      </c>
+      <c r="Q144">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>344</v>
+      </c>
+      <c r="B145">
+        <v>51</v>
+      </c>
+      <c r="C145" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145" t="s">
+        <v>84</v>
+      </c>
+      <c r="J145" t="s">
+        <v>323</v>
+      </c>
+      <c r="K145" t="s">
+        <v>320</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>268</v>
+      </c>
+      <c r="Q145">
+        <v>0.128</v>
+      </c>
+      <c r="R145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>344</v>
+      </c>
+      <c r="B146">
+        <v>51</v>
+      </c>
+      <c r="C146" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>84</v>
+      </c>
+      <c r="I146" t="s">
+        <v>84</v>
+      </c>
+      <c r="J146" t="s">
+        <v>324</v>
+      </c>
+      <c r="K146" t="s">
+        <v>213</v>
+      </c>
+      <c r="N146">
+        <v>14.5</v>
+      </c>
+      <c r="O146">
+        <v>337</v>
+      </c>
+      <c r="Q146">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="R146" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" t="s">
+        <v>348</v>
+      </c>
+      <c r="G147" t="s">
+        <v>83</v>
+      </c>
+      <c r="H147" t="s">
+        <v>85</v>
+      </c>
+      <c r="K147" t="s">
+        <v>98</v>
+      </c>
+      <c r="M147" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q147">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>350</v>
+      </c>
+      <c r="B148">
+        <v>71</v>
+      </c>
+      <c r="C148" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" t="s">
+        <v>351</v>
+      </c>
+      <c r="F148" t="s">
+        <v>108</v>
+      </c>
+      <c r="G148" t="s">
+        <v>83</v>
+      </c>
+      <c r="H148" t="s">
+        <v>134</v>
+      </c>
+      <c r="K148" t="s">
+        <v>98</v>
+      </c>
+      <c r="M148">
+        <v>0.8</v>
+      </c>
+      <c r="Q148">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" t="s">
+        <v>95</v>
+      </c>
+      <c r="E149" t="s">
+        <v>103</v>
+      </c>
+      <c r="F149" t="s">
+        <v>353</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>134</v>
+      </c>
+      <c r="K149" t="s">
+        <v>98</v>
+      </c>
+      <c r="M149">
+        <v>2.1</v>
+      </c>
+      <c r="N149">
+        <v>0.6</v>
+      </c>
+      <c r="O149">
+        <v>192</v>
+      </c>
+      <c r="P149">
+        <v>1.4</v>
+      </c>
+      <c r="Q149">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>354</v>
+      </c>
+      <c r="B150">
+        <v>66</v>
+      </c>
+      <c r="C150" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" t="s">
+        <v>110</v>
+      </c>
+      <c r="E150" t="s">
+        <v>355</v>
+      </c>
+      <c r="F150" t="s">
+        <v>356</v>
+      </c>
+      <c r="G150" t="s">
+        <v>83</v>
+      </c>
+      <c r="H150" t="s">
+        <v>134</v>
+      </c>
+      <c r="K150" t="s">
+        <v>98</v>
+      </c>
+      <c r="M150">
+        <v>1.9</v>
+      </c>
+      <c r="Q150">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151">
+        <v>74</v>
+      </c>
+      <c r="C151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" t="s">
+        <v>80</v>
+      </c>
+      <c r="E151" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" t="s">
+        <v>146</v>
+      </c>
+      <c r="G151" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" t="s">
+        <v>84</v>
+      </c>
+      <c r="I151" t="s">
+        <v>85</v>
+      </c>
+      <c r="K151" t="s">
+        <v>98</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="Q151">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>359</v>
+      </c>
+      <c r="B152">
+        <v>46</v>
+      </c>
+      <c r="C152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D152" t="s">
+        <v>110</v>
+      </c>
+      <c r="E152" t="s">
+        <v>355</v>
+      </c>
+      <c r="F152" t="s">
+        <v>166</v>
+      </c>
+      <c r="G152" t="s">
+        <v>83</v>
+      </c>
+      <c r="H152" t="s">
+        <v>134</v>
+      </c>
+      <c r="K152" t="s">
+        <v>98</v>
+      </c>
+      <c r="M152">
+        <v>1.3</v>
+      </c>
+      <c r="Q152">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>360</v>
+      </c>
+      <c r="B153">
+        <v>70</v>
+      </c>
+      <c r="C153" t="s">
+        <v>89</v>
+      </c>
+      <c r="D153" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" t="s">
+        <v>111</v>
+      </c>
+      <c r="F153" t="s">
+        <v>361</v>
+      </c>
+      <c r="G153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H153" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153" t="s">
+        <v>84</v>
+      </c>
+      <c r="K153" t="s">
+        <v>98</v>
+      </c>
+      <c r="M153">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q153">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>362</v>
+      </c>
+      <c r="B154">
+        <v>67</v>
+      </c>
+      <c r="C154" t="s">
+        <v>89</v>
+      </c>
+      <c r="D154" t="s">
+        <v>71</v>
+      </c>
+      <c r="J154" t="s">
+        <v>76</v>
+      </c>
+      <c r="K154" t="s">
+        <v>320</v>
+      </c>
+      <c r="L154" s="1">
+        <v>43740</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154">
+        <v>294</v>
+      </c>
+      <c r="Q154">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155">
+        <v>67</v>
+      </c>
+      <c r="C155" t="s">
+        <v>89</v>
+      </c>
+      <c r="D155" t="s">
+        <v>71</v>
+      </c>
+      <c r="J155" t="s">
+        <v>321</v>
+      </c>
+      <c r="K155" t="s">
+        <v>320</v>
+      </c>
+      <c r="L155" s="1">
+        <v>43740</v>
+      </c>
+      <c r="N155">
+        <v>6.07</v>
+      </c>
+      <c r="O155">
+        <v>356</v>
+      </c>
+      <c r="Q155">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>362</v>
+      </c>
+      <c r="B156">
+        <v>67</v>
+      </c>
+      <c r="C156" t="s">
+        <v>89</v>
+      </c>
+      <c r="D156" t="s">
+        <v>71</v>
+      </c>
+      <c r="J156" t="s">
+        <v>322</v>
+      </c>
+      <c r="K156" t="s">
+        <v>320</v>
+      </c>
+      <c r="L156" s="1">
+        <v>43740</v>
+      </c>
+      <c r="N156">
+        <v>24</v>
+      </c>
+      <c r="O156">
+        <v>623</v>
+      </c>
+      <c r="Q156">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>362</v>
+      </c>
+      <c r="B157">
+        <v>67</v>
+      </c>
+      <c r="C157" t="s">
+        <v>89</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="J157" t="s">
+        <v>323</v>
+      </c>
+      <c r="K157" t="s">
+        <v>320</v>
+      </c>
+      <c r="L157" s="1">
+        <v>43740</v>
+      </c>
+      <c r="N157">
+        <v>37</v>
+      </c>
+      <c r="O157">
+        <v>560</v>
+      </c>
+      <c r="Q157">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="R157" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>363</v>
+      </c>
+      <c r="B158">
+        <v>80</v>
+      </c>
+      <c r="C158" t="s">
+        <v>89</v>
+      </c>
+      <c r="D158" t="s">
+        <v>71</v>
+      </c>
+      <c r="H158" t="s">
+        <v>84</v>
+      </c>
+      <c r="I158" t="s">
+        <v>85</v>
+      </c>
+      <c r="J158" t="s">
+        <v>76</v>
+      </c>
+      <c r="K158" t="s">
+        <v>93</v>
+      </c>
+      <c r="L158" s="1">
+        <v>43816</v>
+      </c>
+      <c r="O158">
+        <v>354</v>
+      </c>
+      <c r="Q158">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>363</v>
+      </c>
+      <c r="B159">
+        <v>81</v>
+      </c>
+      <c r="C159" t="s">
+        <v>89</v>
+      </c>
+      <c r="D159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>84</v>
+      </c>
+      <c r="I159" t="s">
+        <v>85</v>
+      </c>
+      <c r="J159" t="s">
+        <v>321</v>
+      </c>
+      <c r="K159" t="s">
+        <v>93</v>
+      </c>
+      <c r="L159" s="1">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>363</v>
+      </c>
+      <c r="B160">
+        <v>81</v>
+      </c>
+      <c r="C160" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>84</v>
+      </c>
+      <c r="I160" t="s">
+        <v>85</v>
+      </c>
+      <c r="J160" t="s">
+        <v>322</v>
+      </c>
+      <c r="K160" t="s">
+        <v>93</v>
+      </c>
+      <c r="L160" s="1">
+        <v>43816</v>
+      </c>
+      <c r="N160">
+        <v>4.3</v>
+      </c>
+      <c r="O160">
+        <v>394</v>
+      </c>
+      <c r="Q160">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>363</v>
+      </c>
+      <c r="B161">
+        <v>81</v>
+      </c>
+      <c r="C161" t="s">
+        <v>89</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" t="s">
+        <v>84</v>
+      </c>
+      <c r="I161" t="s">
+        <v>85</v>
+      </c>
+      <c r="J161" t="s">
+        <v>324</v>
+      </c>
+      <c r="K161" t="s">
+        <v>93</v>
+      </c>
+      <c r="L161" s="1">
+        <v>43816</v>
+      </c>
+      <c r="N161">
+        <v>7.7</v>
+      </c>
+      <c r="O161">
+        <v>503</v>
+      </c>
+      <c r="Q161">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="R161" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>364</v>
+      </c>
+      <c r="B162">
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>84</v>
+      </c>
+      <c r="I162" t="s">
+        <v>84</v>
+      </c>
+      <c r="J162" t="s">
+        <v>76</v>
+      </c>
+      <c r="K162" t="s">
+        <v>320</v>
+      </c>
+      <c r="L162" s="1">
+        <v>43989</v>
+      </c>
+      <c r="N162">
+        <v>25</v>
+      </c>
+      <c r="O162">
+        <v>1707</v>
+      </c>
+      <c r="Q162">
+        <v>1.0740000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>364</v>
+      </c>
+      <c r="B163">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>89</v>
+      </c>
+      <c r="D163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>84</v>
+      </c>
+      <c r="I163" t="s">
+        <v>84</v>
+      </c>
+      <c r="J163" t="s">
+        <v>321</v>
+      </c>
+      <c r="K163" t="s">
+        <v>320</v>
+      </c>
+      <c r="L163" s="1">
+        <v>43989</v>
+      </c>
+      <c r="N163">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>364</v>
+      </c>
+      <c r="B164">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
+        <v>89</v>
+      </c>
+      <c r="D164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>84</v>
+      </c>
+      <c r="I164" t="s">
+        <v>84</v>
+      </c>
+      <c r="J164" t="s">
+        <v>322</v>
+      </c>
+      <c r="K164" t="s">
+        <v>320</v>
+      </c>
+      <c r="L164" s="1">
+        <v>43989</v>
+      </c>
+      <c r="N164">
+        <v>30.3</v>
+      </c>
+      <c r="O164">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>364</v>
+      </c>
+      <c r="B165">
+        <v>36</v>
+      </c>
+      <c r="C165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165" t="s">
+        <v>84</v>
+      </c>
+      <c r="J165" t="s">
+        <v>323</v>
+      </c>
+      <c r="K165" t="s">
+        <v>320</v>
+      </c>
+      <c r="L165" s="1">
+        <v>43989</v>
+      </c>
+      <c r="N165">
+        <v>17.5</v>
+      </c>
+      <c r="O165">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166">
+        <v>71</v>
+      </c>
+      <c r="C166" t="s">
+        <v>89</v>
+      </c>
+      <c r="D166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166" t="s">
+        <v>84</v>
+      </c>
+      <c r="J166" t="s">
+        <v>76</v>
+      </c>
+      <c r="K166" t="s">
+        <v>334</v>
+      </c>
+      <c r="L166" s="1">
+        <v>43779</v>
+      </c>
+      <c r="N166">
+        <v>34</v>
+      </c>
+      <c r="O166">
+        <v>200</v>
+      </c>
+      <c r="Q166">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167">
+        <v>71</v>
+      </c>
+      <c r="C167" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167" t="s">
+        <v>84</v>
+      </c>
+      <c r="J167" t="s">
+        <v>321</v>
+      </c>
+      <c r="K167" t="s">
+        <v>334</v>
+      </c>
+      <c r="L167" s="1">
+        <v>43779</v>
+      </c>
+      <c r="O167">
+        <v>279</v>
+      </c>
+      <c r="Q167">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>366</v>
+      </c>
+      <c r="B168">
+        <v>74</v>
+      </c>
+      <c r="C168" t="s">
+        <v>89</v>
+      </c>
+      <c r="D168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168" t="s">
+        <v>84</v>
+      </c>
+      <c r="I168" t="s">
+        <v>84</v>
+      </c>
+      <c r="J168" t="s">
+        <v>76</v>
+      </c>
+      <c r="K168" t="s">
+        <v>320</v>
+      </c>
+      <c r="N168">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>366</v>
+      </c>
+      <c r="B169">
+        <v>74</v>
+      </c>
+      <c r="C169" t="s">
+        <v>89</v>
+      </c>
+      <c r="D169" t="s">
+        <v>71</v>
+      </c>
+      <c r="H169" t="s">
+        <v>84</v>
+      </c>
+      <c r="I169" t="s">
+        <v>84</v>
+      </c>
+      <c r="J169" t="s">
+        <v>321</v>
+      </c>
+      <c r="K169" t="s">
+        <v>320</v>
+      </c>
+      <c r="N169">
+        <v>21</v>
+      </c>
+      <c r="O169">
+        <v>259</v>
+      </c>
+      <c r="Q169">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>366</v>
+      </c>
+      <c r="B170">
+        <v>74</v>
+      </c>
+      <c r="C170" t="s">
+        <v>89</v>
+      </c>
+      <c r="D170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170" t="s">
+        <v>84</v>
+      </c>
+      <c r="J170" t="s">
+        <v>322</v>
+      </c>
+      <c r="K170" t="s">
+        <v>320</v>
+      </c>
+      <c r="N170">
+        <v>17</v>
+      </c>
+      <c r="O170">
+        <v>244</v>
+      </c>
+      <c r="Q170">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>366</v>
+      </c>
+      <c r="B171">
+        <v>74</v>
+      </c>
+      <c r="C171" t="s">
+        <v>89</v>
+      </c>
+      <c r="D171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>84</v>
+      </c>
+      <c r="I171" t="s">
+        <v>84</v>
+      </c>
+      <c r="J171" t="s">
+        <v>323</v>
+      </c>
+      <c r="K171" t="s">
+        <v>320</v>
+      </c>
+      <c r="N171">
+        <v>25</v>
+      </c>
+      <c r="O171">
+        <v>280</v>
+      </c>
+      <c r="Q171">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>366</v>
+      </c>
+      <c r="B172">
+        <v>74</v>
+      </c>
+      <c r="C172" t="s">
+        <v>89</v>
+      </c>
+      <c r="D172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" t="s">
+        <v>84</v>
+      </c>
+      <c r="I172" t="s">
+        <v>84</v>
+      </c>
+      <c r="J172" t="s">
+        <v>367</v>
+      </c>
+      <c r="K172" t="s">
+        <v>368</v>
+      </c>
+      <c r="N172">
+        <v>36</v>
+      </c>
+      <c r="O172">
+        <v>265</v>
+      </c>
+      <c r="Q172">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="R172" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173">
+        <v>76</v>
+      </c>
+      <c r="C173" t="s">
+        <v>89</v>
+      </c>
+      <c r="D173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>84</v>
+      </c>
+      <c r="I173" t="s">
+        <v>84</v>
+      </c>
+      <c r="J173" t="s">
+        <v>76</v>
+      </c>
+      <c r="K173" t="s">
+        <v>320</v>
+      </c>
+      <c r="L173" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173">
+        <v>298</v>
+      </c>
+      <c r="Q173">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>369</v>
+      </c>
+      <c r="B174">
+        <v>76</v>
+      </c>
+      <c r="C174" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174" t="s">
+        <v>84</v>
+      </c>
+      <c r="I174" t="s">
+        <v>84</v>
+      </c>
+      <c r="J174" t="s">
+        <v>322</v>
+      </c>
+      <c r="K174" t="s">
+        <v>320</v>
+      </c>
+      <c r="L174" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N174">
+        <v>22</v>
+      </c>
+      <c r="O174">
+        <v>655</v>
+      </c>
+      <c r="Q174">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>369</v>
+      </c>
+      <c r="B175">
+        <v>76</v>
+      </c>
+      <c r="C175" t="s">
+        <v>89</v>
+      </c>
+      <c r="D175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>84</v>
+      </c>
+      <c r="I175" t="s">
+        <v>84</v>
+      </c>
+      <c r="J175" t="s">
+        <v>323</v>
+      </c>
+      <c r="K175" t="s">
+        <v>213</v>
+      </c>
+      <c r="L175" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N175">
+        <v>5</v>
+      </c>
+      <c r="O175">
+        <v>330</v>
+      </c>
+      <c r="Q175">
+        <v>9.4E-2</v>
+      </c>
+      <c r="R175" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>369</v>
+      </c>
+      <c r="B176">
+        <v>76</v>
+      </c>
+      <c r="C176" t="s">
+        <v>89</v>
+      </c>
+      <c r="D176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>84</v>
+      </c>
+      <c r="I176" t="s">
+        <v>84</v>
+      </c>
+      <c r="J176" t="s">
+        <v>327</v>
+      </c>
+      <c r="K176" t="s">
+        <v>213</v>
+      </c>
+      <c r="L176" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N176">
+        <v>13</v>
+      </c>
+      <c r="O176">
+        <v>465</v>
+      </c>
+      <c r="Q176">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>369</v>
+      </c>
+      <c r="B177">
+        <v>76</v>
+      </c>
+      <c r="C177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>84</v>
+      </c>
+      <c r="I177" t="s">
+        <v>84</v>
+      </c>
+      <c r="J177" t="s">
+        <v>329</v>
+      </c>
+      <c r="K177" t="s">
+        <v>213</v>
+      </c>
+      <c r="L177" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N177">
+        <v>26</v>
+      </c>
+      <c r="O177">
+        <v>390</v>
+      </c>
+      <c r="Q177">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="R177" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>369</v>
+      </c>
+      <c r="B178">
+        <v>77</v>
+      </c>
+      <c r="C178" t="s">
+        <v>89</v>
+      </c>
+      <c r="D178" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" t="s">
+        <v>84</v>
+      </c>
+      <c r="I178" t="s">
+        <v>84</v>
+      </c>
+      <c r="J178" t="s">
+        <v>370</v>
+      </c>
+      <c r="K178" t="s">
+        <v>213</v>
+      </c>
+      <c r="L178" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N178">
+        <v>24</v>
+      </c>
+      <c r="O178">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>369</v>
+      </c>
+      <c r="B179">
+        <v>77</v>
+      </c>
+      <c r="C179" t="s">
+        <v>89</v>
+      </c>
+      <c r="D179" t="s">
+        <v>71</v>
+      </c>
+      <c r="H179" t="s">
+        <v>84</v>
+      </c>
+      <c r="I179" t="s">
+        <v>84</v>
+      </c>
+      <c r="J179" t="s">
+        <v>371</v>
+      </c>
+      <c r="K179" t="s">
+        <v>213</v>
+      </c>
+      <c r="L179" s="1">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180">
+        <v>77</v>
+      </c>
+      <c r="C180" t="s">
+        <v>89</v>
+      </c>
+      <c r="D180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>84</v>
+      </c>
+      <c r="I180" t="s">
+        <v>84</v>
+      </c>
+      <c r="J180" t="s">
+        <v>372</v>
+      </c>
+      <c r="K180" t="s">
+        <v>213</v>
+      </c>
+      <c r="L180" s="1">
+        <v>43763</v>
+      </c>
+      <c r="N180">
+        <v>11</v>
+      </c>
+      <c r="O180">
+        <v>240</v>
+      </c>
+      <c r="Q180">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R180" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>373</v>
+      </c>
+      <c r="B181">
+        <v>73</v>
+      </c>
+      <c r="C181" t="s">
+        <v>89</v>
+      </c>
+      <c r="D181" t="s">
+        <v>80</v>
+      </c>
+      <c r="E181" t="s">
+        <v>374</v>
+      </c>
+      <c r="F181" t="s">
+        <v>375</v>
+      </c>
+      <c r="G181" t="s">
+        <v>83</v>
+      </c>
+      <c r="H181" t="s">
+        <v>84</v>
+      </c>
+      <c r="J181" t="s">
+        <v>376</v>
+      </c>
+      <c r="K181" t="s">
+        <v>86</v>
+      </c>
+      <c r="M181">
+        <v>3.7</v>
+      </c>
+      <c r="N181">
+        <v>1.4</v>
+      </c>
+      <c r="O181">
+        <v>149</v>
+      </c>
+      <c r="P181">
+        <v>2.7</v>
+      </c>
+      <c r="R181" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>377</v>
+      </c>
+      <c r="B182">
+        <v>43</v>
+      </c>
+      <c r="C182" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182" t="s">
+        <v>378</v>
+      </c>
+      <c r="F182" t="s">
+        <v>187</v>
+      </c>
+      <c r="G182" t="s">
+        <v>279</v>
+      </c>
+      <c r="K182" t="s">
+        <v>98</v>
+      </c>
+      <c r="M182">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>379</v>
+      </c>
+      <c r="B183">
+        <v>61</v>
+      </c>
+      <c r="C183" t="s">
+        <v>70</v>
+      </c>
+      <c r="D183" t="s">
+        <v>117</v>
+      </c>
+      <c r="E183" t="s">
+        <v>374</v>
+      </c>
+      <c r="F183" t="s">
+        <v>108</v>
+      </c>
+      <c r="G183" t="s">
+        <v>83</v>
+      </c>
+      <c r="K183" t="s">
+        <v>98</v>
+      </c>
+      <c r="M183" t="s">
+        <v>380</v>
+      </c>
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
+        <v>167</v>
+      </c>
+      <c r="P183">
+        <v>2.6</v>
+      </c>
+      <c r="Q183">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184">
+        <v>75</v>
+      </c>
+      <c r="C184" t="s">
+        <v>89</v>
+      </c>
+      <c r="D184" t="s">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>347</v>
+      </c>
+      <c r="F184" t="s">
+        <v>143</v>
+      </c>
+      <c r="G184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H184" t="s">
+        <v>84</v>
+      </c>
+      <c r="I184" t="s">
+        <v>84</v>
+      </c>
+      <c r="K184" t="s">
+        <v>98</v>
+      </c>
+      <c r="M184" t="s">
+        <v>382</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>211</v>
+      </c>
+      <c r="P184">
+        <v>2.4</v>
+      </c>
+      <c r="Q184">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>383</v>
+      </c>
+      <c r="B185">
+        <v>48</v>
+      </c>
+      <c r="C185" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185" t="s">
+        <v>102</v>
+      </c>
+      <c r="E185" t="s">
+        <v>103</v>
+      </c>
+      <c r="F185" t="s">
+        <v>108</v>
+      </c>
+      <c r="G185" t="s">
+        <v>83</v>
+      </c>
+      <c r="H185" t="s">
+        <v>134</v>
+      </c>
+      <c r="K185" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>384</v>
+      </c>
+      <c r="B186">
+        <v>66</v>
+      </c>
+      <c r="C186" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" t="s">
+        <v>95</v>
+      </c>
+      <c r="E186" t="s">
+        <v>277</v>
+      </c>
+      <c r="F186" t="s">
+        <v>385</v>
+      </c>
+      <c r="G186" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" t="s">
+        <v>84</v>
+      </c>
+      <c r="I186" t="s">
+        <v>84</v>
+      </c>
+      <c r="K186" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>386</v>
+      </c>
+      <c r="B187">
+        <v>63</v>
+      </c>
+      <c r="C187" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" t="s">
+        <v>108</v>
+      </c>
+      <c r="G187" t="s">
+        <v>83</v>
+      </c>
+      <c r="H187" t="s">
+        <v>134</v>
+      </c>
+      <c r="K187" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>387</v>
+      </c>
+      <c r="B188">
+        <v>80</v>
+      </c>
+      <c r="C188" t="s">
+        <v>89</v>
+      </c>
+      <c r="D188" t="s">
+        <v>80</v>
+      </c>
+      <c r="E188" t="s">
+        <v>277</v>
+      </c>
+      <c r="F188" t="s">
+        <v>146</v>
+      </c>
+      <c r="G188" t="s">
+        <v>388</v>
+      </c>
+      <c r="H188" t="s">
+        <v>84</v>
+      </c>
+      <c r="I188" t="s">
+        <v>84</v>
+      </c>
+      <c r="K188" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+      <c r="B189">
+        <v>78</v>
+      </c>
+      <c r="C189" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" t="s">
+        <v>113</v>
+      </c>
+      <c r="E189" t="s">
+        <v>390</v>
+      </c>
+      <c r="F189" t="s">
+        <v>108</v>
+      </c>
+      <c r="G189" t="s">
+        <v>83</v>
+      </c>
+      <c r="J189" t="s">
+        <v>98</v>
+      </c>
+      <c r="K189" s="2">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>391</v>
+      </c>
+      <c r="B190">
+        <v>70</v>
+      </c>
+      <c r="C190" t="s">
+        <v>89</v>
+      </c>
+      <c r="D190" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" t="s">
+        <v>84</v>
+      </c>
+      <c r="I190" t="s">
+        <v>85</v>
+      </c>
+      <c r="J190" t="s">
+        <v>76</v>
+      </c>
+      <c r="K190" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191">
+        <v>70</v>
+      </c>
+      <c r="C191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D191" t="s">
+        <v>71</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191" t="s">
+        <v>85</v>
+      </c>
+      <c r="J191" t="s">
+        <v>322</v>
+      </c>
+      <c r="K191" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>391</v>
+      </c>
+      <c r="B192">
+        <v>70</v>
+      </c>
+      <c r="C192" t="s">
+        <v>89</v>
+      </c>
+      <c r="D192" t="s">
+        <v>71</v>
+      </c>
+      <c r="H192" t="s">
+        <v>84</v>
+      </c>
+      <c r="I192" t="s">
+        <v>85</v>
+      </c>
+      <c r="J192" t="s">
+        <v>324</v>
+      </c>
+      <c r="K192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>391</v>
+      </c>
+      <c r="B193">
+        <v>70</v>
+      </c>
+      <c r="C193" t="s">
+        <v>89</v>
+      </c>
+      <c r="D193" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" t="s">
+        <v>84</v>
+      </c>
+      <c r="I193" t="s">
+        <v>85</v>
+      </c>
+      <c r="J193" t="s">
+        <v>328</v>
+      </c>
+      <c r="K193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>391</v>
+      </c>
+      <c r="B194">
+        <v>70</v>
+      </c>
+      <c r="C194" t="s">
+        <v>89</v>
+      </c>
+      <c r="D194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>84</v>
+      </c>
+      <c r="I194" t="s">
+        <v>85</v>
+      </c>
+      <c r="J194" t="s">
+        <v>392</v>
+      </c>
+      <c r="K194" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195">
+        <v>70</v>
+      </c>
+      <c r="C195" t="s">
+        <v>89</v>
+      </c>
+      <c r="D195" t="s">
+        <v>71</v>
+      </c>
+      <c r="H195" t="s">
+        <v>84</v>
+      </c>
+      <c r="I195" t="s">
+        <v>85</v>
+      </c>
+      <c r="J195" t="s">
+        <v>370</v>
+      </c>
+      <c r="K195" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196">
+        <v>70</v>
+      </c>
+      <c r="C196" t="s">
+        <v>89</v>
+      </c>
+      <c r="D196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>84</v>
+      </c>
+      <c r="I196" t="s">
+        <v>85</v>
+      </c>
+      <c r="J196" t="s">
+        <v>393</v>
+      </c>
+      <c r="K196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197">
+        <v>51</v>
+      </c>
+      <c r="C197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D197" t="s">
+        <v>71</v>
+      </c>
+      <c r="H197" t="s">
+        <v>85</v>
+      </c>
+      <c r="I197" t="s">
+        <v>84</v>
+      </c>
+      <c r="J197" t="s">
+        <v>323</v>
+      </c>
+      <c r="K197" t="s">
+        <v>320</v>
+      </c>
+      <c r="L197" s="1">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198">
+        <v>60</v>
+      </c>
+      <c r="C198" t="s">
+        <v>70</v>
+      </c>
+      <c r="D198" t="s">
+        <v>71</v>
+      </c>
+      <c r="H198" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198" t="s">
+        <v>84</v>
+      </c>
+      <c r="J198" t="s">
+        <v>76</v>
+      </c>
+      <c r="K198" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199">
+        <v>44</v>
+      </c>
+      <c r="C199" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" t="s">
+        <v>71</v>
+      </c>
+      <c r="H199" t="s">
+        <v>85</v>
+      </c>
+      <c r="I199" t="s">
+        <v>84</v>
+      </c>
+      <c r="J199" t="s">
+        <v>76</v>
+      </c>
+      <c r="K199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200">
+        <v>50</v>
+      </c>
+      <c r="D200" t="s">
+        <v>71</v>
+      </c>
+      <c r="J200" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201">
+        <v>29</v>
+      </c>
+      <c r="C201" t="s">
+        <v>89</v>
+      </c>
+      <c r="D201" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" t="s">
+        <v>85</v>
+      </c>
+      <c r="I201" t="s">
+        <v>84</v>
+      </c>
+      <c r="J201" t="s">
+        <v>76</v>
+      </c>
+      <c r="K201" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202">
+        <v>77</v>
+      </c>
+      <c r="C202" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" t="s">
+        <v>84</v>
+      </c>
+      <c r="I202" t="s">
+        <v>85</v>
+      </c>
+      <c r="J202" t="s">
+        <v>76</v>
+      </c>
+      <c r="K202" t="s">
+        <v>93</v>
+      </c>
+      <c r="L202" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203">
+        <v>61</v>
+      </c>
+      <c r="C203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203" t="s">
+        <v>84</v>
+      </c>
+      <c r="J203" t="s">
+        <v>76</v>
+      </c>
+      <c r="K203" t="s">
+        <v>320</v>
+      </c>
+      <c r="L203" s="1">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204">
+        <v>56</v>
+      </c>
+      <c r="C204" t="s">
+        <v>70</v>
+      </c>
+      <c r="D204" t="s">
+        <v>71</v>
+      </c>
+      <c r="J204" t="s">
+        <v>324</v>
+      </c>
+      <c r="K204" t="s">
+        <v>213</v>
+      </c>
+      <c r="L204" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205">
+        <v>85</v>
+      </c>
+      <c r="C205" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" t="s">
+        <v>84</v>
+      </c>
+      <c r="I205" t="s">
+        <v>85</v>
+      </c>
+      <c r="J205" t="s">
+        <v>76</v>
+      </c>
+      <c r="K205" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206">
+        <v>67</v>
+      </c>
+      <c r="C206" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" t="s">
+        <v>71</v>
+      </c>
+      <c r="H206" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" t="s">
+        <v>84</v>
+      </c>
+      <c r="J206" t="s">
+        <v>76</v>
+      </c>
+      <c r="K206" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>405</v>
+      </c>
+      <c r="B207">
+        <v>61</v>
+      </c>
+      <c r="C207" t="s">
+        <v>89</v>
+      </c>
+      <c r="D207" t="s">
+        <v>71</v>
+      </c>
+      <c r="H207" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" t="s">
+        <v>84</v>
+      </c>
+      <c r="J207" t="s">
+        <v>76</v>
+      </c>
+      <c r="K207" t="s">
+        <v>334</v>
+      </c>
+      <c r="L207" s="1">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>406</v>
+      </c>
+      <c r="B208">
+        <v>81</v>
+      </c>
+      <c r="C208" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" t="s">
+        <v>71</v>
+      </c>
+      <c r="H208" t="s">
+        <v>84</v>
+      </c>
+      <c r="I208" t="s">
+        <v>85</v>
+      </c>
+      <c r="J208" t="s">
+        <v>76</v>
+      </c>
+      <c r="K208" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209">
+        <v>63</v>
+      </c>
+      <c r="C209" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" t="s">
+        <v>71</v>
+      </c>
+      <c r="J209" t="s">
+        <v>76</v>
+      </c>
+      <c r="K209" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>408</v>
+      </c>
+      <c r="B210">
+        <v>79</v>
+      </c>
+      <c r="C210" t="s">
+        <v>89</v>
+      </c>
+      <c r="D210" t="s">
+        <v>71</v>
+      </c>
+      <c r="J210" t="s">
+        <v>76</v>
+      </c>
+      <c r="K210" t="s">
+        <v>320</v>
+      </c>
+      <c r="L210" s="1">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211">
+        <v>84</v>
+      </c>
+      <c r="C211" t="s">
+        <v>89</v>
+      </c>
+      <c r="D211" t="s">
+        <v>71</v>
+      </c>
+      <c r="J211" t="s">
+        <v>76</v>
+      </c>
+      <c r="K211" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>411</v>
+      </c>
+      <c r="B212">
+        <v>74</v>
+      </c>
+      <c r="C212" t="s">
+        <v>89</v>
+      </c>
+      <c r="D212" t="s">
+        <v>71</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+      <c r="I212" t="s">
+        <v>85</v>
+      </c>
+      <c r="J212" t="s">
+        <v>76</v>
+      </c>
+      <c r="K212" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213">
+        <v>53</v>
+      </c>
+      <c r="C213" t="s">
+        <v>89</v>
+      </c>
+      <c r="D213" t="s">
+        <v>71</v>
+      </c>
+      <c r="H213" t="s">
+        <v>85</v>
+      </c>
+      <c r="I213" t="s">
+        <v>84</v>
+      </c>
+      <c r="J213" t="s">
+        <v>76</v>
+      </c>
+      <c r="K213" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214">
+        <v>56</v>
+      </c>
+      <c r="C214" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" t="s">
+        <v>71</v>
+      </c>
+      <c r="H214" t="s">
+        <v>84</v>
+      </c>
+      <c r="I214" t="s">
+        <v>85</v>
+      </c>
+      <c r="J214" t="s">
+        <v>76</v>
+      </c>
+      <c r="K214" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>414</v>
+      </c>
+      <c r="B215">
+        <v>37</v>
+      </c>
+      <c r="C215" t="s">
+        <v>70</v>
+      </c>
+      <c r="D215" t="s">
+        <v>71</v>
+      </c>
+      <c r="H215" t="s">
+        <v>85</v>
+      </c>
+      <c r="I215" t="s">
+        <v>84</v>
+      </c>
+      <c r="J215" t="s">
+        <v>76</v>
+      </c>
+      <c r="K215" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216">
+        <v>29</v>
+      </c>
+      <c r="C216" t="s">
+        <v>89</v>
+      </c>
+      <c r="D216" t="s">
+        <v>71</v>
+      </c>
+      <c r="H216" t="s">
+        <v>84</v>
+      </c>
+      <c r="I216" t="s">
+        <v>85</v>
+      </c>
+      <c r="J216" t="s">
+        <v>76</v>
+      </c>
+      <c r="K216" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>416</v>
+      </c>
+      <c r="B217">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" t="s">
+        <v>71</v>
+      </c>
+      <c r="H217" t="s">
+        <v>84</v>
+      </c>
+      <c r="I217" t="s">
+        <v>84</v>
+      </c>
+      <c r="J217" t="s">
+        <v>76</v>
+      </c>
+      <c r="K217" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>417</v>
+      </c>
+      <c r="B218">
+        <v>81</v>
+      </c>
+      <c r="C218" t="s">
+        <v>89</v>
+      </c>
+      <c r="D218" t="s">
+        <v>71</v>
+      </c>
+      <c r="H218" t="s">
+        <v>84</v>
+      </c>
+      <c r="I218" t="s">
+        <v>85</v>
+      </c>
+      <c r="J218" t="s">
+        <v>76</v>
+      </c>
+      <c r="K218" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>418</v>
+      </c>
+      <c r="B219">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" t="s">
+        <v>71</v>
+      </c>
+      <c r="H219" t="s">
+        <v>85</v>
+      </c>
+      <c r="I219" t="s">
+        <v>84</v>
+      </c>
+      <c r="J219" t="s">
+        <v>323</v>
+      </c>
+      <c r="K219" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>419</v>
+      </c>
+      <c r="B220">
+        <v>68</v>
+      </c>
+      <c r="C220" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" t="s">
+        <v>71</v>
+      </c>
+      <c r="H220" t="s">
+        <v>84</v>
+      </c>
+      <c r="I220" t="s">
+        <v>84</v>
+      </c>
+      <c r="J220" t="s">
+        <v>372</v>
+      </c>
+      <c r="K220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>420</v>
+      </c>
+      <c r="B221">
+        <v>37</v>
+      </c>
+      <c r="C221" t="s">
+        <v>89</v>
+      </c>
+      <c r="D221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J221" t="s">
+        <v>421</v>
+      </c>
+      <c r="K221" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222">
+        <v>60</v>
+      </c>
+      <c r="C222" t="s">
+        <v>70</v>
+      </c>
+      <c r="D222" t="s">
+        <v>95</v>
+      </c>
+      <c r="E222" t="s">
+        <v>247</v>
+      </c>
+      <c r="F222" t="s">
+        <v>423</v>
+      </c>
+      <c r="G222" t="s">
+        <v>83</v>
+      </c>
+      <c r="H222" t="s">
+        <v>84</v>
+      </c>
+      <c r="I222" t="s">
+        <v>84</v>
+      </c>
+      <c r="K222" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>424</v>
+      </c>
+      <c r="B223">
+        <v>55</v>
+      </c>
+      <c r="C223" t="s">
+        <v>89</v>
+      </c>
+      <c r="D223" t="s">
+        <v>113</v>
+      </c>
+      <c r="E223" t="s">
+        <v>114</v>
+      </c>
+      <c r="F223" t="s">
+        <v>133</v>
+      </c>
+      <c r="G223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" t="s">
+        <v>84</v>
+      </c>
+      <c r="I223" t="s">
+        <v>85</v>
+      </c>
+      <c r="K223" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>425</v>
+      </c>
+      <c r="B224">
+        <v>65</v>
+      </c>
+      <c r="C224" t="s">
+        <v>70</v>
+      </c>
+      <c r="D224" t="s">
+        <v>80</v>
+      </c>
+      <c r="E224" t="s">
+        <v>390</v>
+      </c>
+      <c r="F224" t="s">
+        <v>137</v>
+      </c>
+      <c r="G224" t="s">
+        <v>83</v>
+      </c>
+      <c r="H224" t="s">
+        <v>85</v>
+      </c>
+      <c r="K224" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>426</v>
+      </c>
+      <c r="B225">
+        <v>81</v>
+      </c>
+      <c r="C225" t="s">
+        <v>70</v>
+      </c>
+      <c r="D225" t="s">
+        <v>117</v>
+      </c>
+      <c r="E225" t="s">
+        <v>81</v>
+      </c>
+      <c r="F225" t="s">
+        <v>166</v>
+      </c>
+      <c r="G225" t="s">
+        <v>83</v>
+      </c>
+      <c r="H225" t="s">
+        <v>134</v>
+      </c>
+      <c r="K225" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>427</v>
+      </c>
+      <c r="B226">
+        <v>61</v>
+      </c>
+      <c r="C226" t="s">
+        <v>89</v>
+      </c>
+      <c r="D226" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" t="s">
+        <v>358</v>
+      </c>
+      <c r="F226" t="s">
+        <v>428</v>
+      </c>
+      <c r="G226" t="s">
+        <v>83</v>
+      </c>
+      <c r="H226" t="s">
+        <v>134</v>
+      </c>
+      <c r="K226" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>429</v>
+      </c>
+      <c r="B227">
+        <v>80</v>
+      </c>
+      <c r="C227" t="s">
+        <v>70</v>
+      </c>
+      <c r="D227" t="s">
+        <v>90</v>
+      </c>
+      <c r="E227" t="s">
+        <v>81</v>
+      </c>
+      <c r="F227" t="s">
+        <v>430</v>
+      </c>
+      <c r="G227" t="s">
+        <v>83</v>
+      </c>
+      <c r="H227" t="s">
+        <v>84</v>
+      </c>
+      <c r="I227" t="s">
+        <v>84</v>
+      </c>
+      <c r="K227" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228">
+        <v>66</v>
+      </c>
+      <c r="C228" t="s">
+        <v>70</v>
+      </c>
+      <c r="D228" t="s">
+        <v>110</v>
+      </c>
+      <c r="E228" t="s">
+        <v>195</v>
+      </c>
+      <c r="F228" t="s">
+        <v>133</v>
+      </c>
+      <c r="G228" t="s">
+        <v>83</v>
+      </c>
+      <c r="H228" t="s">
+        <v>134</v>
+      </c>
+      <c r="K228" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>432</v>
+      </c>
+      <c r="B229">
+        <v>54</v>
+      </c>
+      <c r="C229" t="s">
+        <v>89</v>
+      </c>
+      <c r="D229" t="s">
+        <v>95</v>
+      </c>
+      <c r="E229" t="s">
+        <v>355</v>
+      </c>
+      <c r="F229" t="s">
+        <v>100</v>
+      </c>
+      <c r="G229" t="s">
+        <v>83</v>
+      </c>
+      <c r="H229" t="s">
+        <v>85</v>
+      </c>
+      <c r="K229" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>433</v>
+      </c>
+      <c r="B230">
+        <v>71</v>
+      </c>
+      <c r="C230" t="s">
+        <v>70</v>
+      </c>
+      <c r="D230" t="s">
+        <v>95</v>
+      </c>
+      <c r="E230" t="s">
+        <v>434</v>
+      </c>
+      <c r="F230" t="s">
+        <v>92</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" t="s">
+        <v>85</v>
+      </c>
+      <c r="J230" t="s">
+        <v>76</v>
+      </c>
+      <c r="K230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>435</v>
+      </c>
+      <c r="B231">
+        <v>58</v>
+      </c>
+      <c r="C231" t="s">
+        <v>70</v>
+      </c>
+      <c r="D231" t="s">
+        <v>110</v>
+      </c>
+      <c r="E231" t="s">
+        <v>195</v>
+      </c>
+      <c r="F231" t="s">
+        <v>436</v>
+      </c>
+      <c r="G231" t="s">
+        <v>83</v>
+      </c>
+      <c r="H231" t="s">
+        <v>134</v>
+      </c>
+      <c r="K231" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>437</v>
+      </c>
+      <c r="B232">
+        <v>45</v>
+      </c>
+      <c r="C232" t="s">
+        <v>89</v>
+      </c>
+      <c r="D232" t="s">
+        <v>438</v>
+      </c>
+      <c r="E232" t="s">
+        <v>126</v>
+      </c>
+      <c r="F232" t="s">
+        <v>226</v>
+      </c>
+      <c r="G232" t="s">
+        <v>83</v>
+      </c>
+      <c r="H232" t="s">
+        <v>85</v>
+      </c>
+      <c r="J232" t="s">
+        <v>76</v>
+      </c>
+      <c r="K232" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>439</v>
+      </c>
+      <c r="B233">
+        <v>49</v>
+      </c>
+      <c r="C233" t="s">
+        <v>89</v>
+      </c>
+      <c r="D233" t="s">
+        <v>90</v>
+      </c>
+      <c r="E233" t="s">
+        <v>195</v>
+      </c>
+      <c r="F233" t="s">
+        <v>440</v>
+      </c>
+      <c r="G233" t="s">
+        <v>83</v>
+      </c>
+      <c r="H233" t="s">
+        <v>84</v>
+      </c>
+      <c r="I233" t="s">
+        <v>84</v>
+      </c>
+      <c r="J233" t="s">
+        <v>76</v>
+      </c>
+      <c r="K233" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>441</v>
+      </c>
+      <c r="B234">
+        <v>55</v>
+      </c>
+      <c r="C234" t="s">
+        <v>70</v>
+      </c>
+      <c r="D234" t="s">
+        <v>80</v>
+      </c>
+      <c r="E234" t="s">
+        <v>126</v>
+      </c>
+      <c r="F234" t="s">
+        <v>442</v>
+      </c>
+      <c r="G234" t="s">
+        <v>83</v>
+      </c>
+      <c r="H234" t="s">
+        <v>84</v>
+      </c>
+      <c r="I234" t="s">
+        <v>85</v>
+      </c>
+      <c r="J234" t="s">
+        <v>76</v>
+      </c>
+      <c r="K234" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>443</v>
+      </c>
+      <c r="B235">
+        <v>62</v>
+      </c>
+      <c r="C235" t="s">
+        <v>89</v>
+      </c>
+      <c r="D235" t="s">
+        <v>90</v>
+      </c>
+      <c r="E235" t="s">
+        <v>444</v>
+      </c>
+      <c r="F235" t="s">
+        <v>445</v>
+      </c>
+      <c r="G235" t="s">
+        <v>83</v>
+      </c>
+      <c r="H235" t="s">
+        <v>84</v>
+      </c>
+      <c r="I235" t="s">
+        <v>85</v>
+      </c>
+      <c r="J235" t="s">
+        <v>76</v>
+      </c>
+      <c r="K235" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>446</v>
+      </c>
+      <c r="B236">
+        <v>60</v>
+      </c>
+      <c r="C236" t="s">
+        <v>70</v>
+      </c>
+      <c r="D236" t="s">
+        <v>80</v>
+      </c>
+      <c r="E236" t="s">
+        <v>447</v>
+      </c>
+      <c r="F236" t="s">
+        <v>143</v>
+      </c>
+      <c r="G236" t="s">
+        <v>83</v>
+      </c>
+      <c r="H236" t="s">
+        <v>84</v>
+      </c>
+      <c r="I236" t="s">
+        <v>84</v>
+      </c>
+      <c r="J236" t="s">
+        <v>76</v>
+      </c>
+      <c r="K236" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>448</v>
+      </c>
+      <c r="B237">
+        <v>61</v>
+      </c>
+      <c r="C237" t="s">
+        <v>70</v>
+      </c>
+      <c r="D237" t="s">
+        <v>71</v>
+      </c>
+      <c r="E237" t="s">
+        <v>179</v>
+      </c>
+      <c r="F237" t="s">
+        <v>146</v>
+      </c>
+      <c r="G237" t="s">
+        <v>73</v>
+      </c>
+      <c r="H237" t="s">
+        <v>85</v>
+      </c>
+      <c r="J237" t="s">
+        <v>76</v>
+      </c>
+      <c r="K237" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>449</v>
+      </c>
+      <c r="B238">
+        <v>61</v>
+      </c>
+      <c r="C238" t="s">
+        <v>89</v>
+      </c>
+      <c r="D238" t="s">
+        <v>71</v>
+      </c>
+      <c r="E238" t="s">
+        <v>156</v>
+      </c>
+      <c r="F238" t="s">
+        <v>450</v>
+      </c>
+      <c r="G238" t="s">
+        <v>152</v>
+      </c>
+      <c r="H238" t="s">
+        <v>85</v>
+      </c>
+      <c r="J238" t="s">
+        <v>76</v>
+      </c>
+      <c r="K238" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>451</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>89</v>
+      </c>
+      <c r="D239" t="s">
+        <v>71</v>
+      </c>
+      <c r="E239" t="s">
+        <v>139</v>
+      </c>
+      <c r="F239" t="s">
+        <v>452</v>
+      </c>
+      <c r="G239" t="s">
+        <v>152</v>
+      </c>
+      <c r="H239" t="s">
+        <v>84</v>
+      </c>
+      <c r="I239" t="s">
+        <v>85</v>
+      </c>
+      <c r="J239" t="s">
+        <v>288</v>
+      </c>
+      <c r="K239" t="s">
+        <v>77</v>
+      </c>
+      <c r="L239" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>453</v>
+      </c>
+      <c r="B240">
+        <v>60</v>
+      </c>
+      <c r="C240" t="s">
+        <v>89</v>
+      </c>
+      <c r="D240" t="s">
+        <v>71</v>
+      </c>
+      <c r="E240" t="s">
+        <v>358</v>
+      </c>
+      <c r="F240" t="s">
+        <v>454</v>
+      </c>
+      <c r="G240" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" t="s">
+        <v>85</v>
+      </c>
+      <c r="J240" t="s">
+        <v>455</v>
+      </c>
+      <c r="K240" t="s">
+        <v>77</v>
+      </c>
+      <c r="L240" s="1">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>456</v>
+      </c>
+      <c r="B241">
+        <v>58</v>
+      </c>
+      <c r="C241" t="s">
+        <v>89</v>
+      </c>
+      <c r="D241" t="s">
+        <v>71</v>
+      </c>
+      <c r="E241" t="s">
+        <v>374</v>
+      </c>
+      <c r="F241" t="s">
+        <v>137</v>
+      </c>
+      <c r="G241" t="s">
+        <v>83</v>
+      </c>
+      <c r="H241" t="s">
+        <v>84</v>
+      </c>
+      <c r="I241" t="s">
+        <v>85</v>
+      </c>
+      <c r="J241" t="s">
+        <v>455</v>
+      </c>
+      <c r="K241" t="s">
+        <v>77</v>
+      </c>
+      <c r="N241">
+        <v>13.8</v>
+      </c>
+      <c r="O241">
+        <v>216</v>
+      </c>
+      <c r="P241">
+        <v>8</v>
+      </c>
+      <c r="Q241">
+        <v>0.06</v>
+      </c>
+      <c r="R241" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>457</v>
+      </c>
+      <c r="B242">
+        <v>61</v>
+      </c>
+      <c r="C242" t="s">
+        <v>89</v>
+      </c>
+      <c r="D242" t="s">
+        <v>71</v>
+      </c>
+      <c r="E242" t="s">
+        <v>139</v>
+      </c>
+      <c r="F242" t="s">
+        <v>458</v>
+      </c>
+      <c r="G242" t="s">
+        <v>73</v>
+      </c>
+      <c r="H242" t="s">
+        <v>85</v>
+      </c>
+      <c r="K242" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>459</v>
+      </c>
+      <c r="B243">
+        <v>54</v>
+      </c>
+      <c r="C243" t="s">
+        <v>89</v>
+      </c>
+      <c r="D243" t="s">
+        <v>71</v>
+      </c>
+      <c r="E243" t="s">
+        <v>277</v>
+      </c>
+      <c r="F243" t="s">
+        <v>97</v>
+      </c>
+      <c r="G243" t="s">
+        <v>152</v>
+      </c>
+      <c r="H243" t="s">
+        <v>84</v>
+      </c>
+      <c r="I243" t="s">
+        <v>85</v>
+      </c>
+      <c r="J243" t="s">
+        <v>460</v>
+      </c>
+      <c r="K243" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>461</v>
+      </c>
+      <c r="B244">
+        <v>76</v>
+      </c>
+      <c r="C244" t="s">
+        <v>89</v>
+      </c>
+      <c r="D244" t="s">
+        <v>71</v>
+      </c>
+      <c r="E244" t="s">
+        <v>126</v>
+      </c>
+      <c r="F244" t="s">
+        <v>146</v>
+      </c>
+      <c r="G244" t="s">
+        <v>73</v>
+      </c>
+      <c r="H244" t="s">
+        <v>84</v>
+      </c>
+      <c r="J244" t="s">
+        <v>462</v>
+      </c>
+      <c r="K244" t="s">
+        <v>86</v>
+      </c>
+      <c r="L244" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>463</v>
+      </c>
+      <c r="B245">
+        <v>63</v>
+      </c>
+      <c r="C245" t="s">
+        <v>89</v>
+      </c>
+      <c r="D245" t="s">
+        <v>80</v>
+      </c>
+      <c r="E245" t="s">
+        <v>130</v>
+      </c>
+      <c r="F245" t="s">
+        <v>205</v>
+      </c>
+      <c r="G245" t="s">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s">
+        <v>84</v>
+      </c>
+      <c r="I245" t="s">
+        <v>85</v>
+      </c>
+      <c r="J245" t="s">
+        <v>76</v>
+      </c>
+      <c r="K245" t="s">
+        <v>86</v>
+      </c>
+      <c r="M245">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N245" t="s">
+        <v>464</v>
+      </c>
+      <c r="O245">
+        <v>178</v>
+      </c>
+      <c r="P245">
+        <v>0.8</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>466</v>
+      </c>
+      <c r="B246">
+        <v>69</v>
+      </c>
+      <c r="C246" t="s">
+        <v>89</v>
+      </c>
+      <c r="D246" t="s">
+        <v>80</v>
+      </c>
+      <c r="E246" t="s">
+        <v>126</v>
+      </c>
+      <c r="F246" t="s">
+        <v>286</v>
+      </c>
+      <c r="G246" t="s">
+        <v>83</v>
+      </c>
+      <c r="H246" t="s">
+        <v>84</v>
+      </c>
+      <c r="I246" t="s">
+        <v>467</v>
+      </c>
+      <c r="J246" t="s">
+        <v>76</v>
+      </c>
+      <c r="K246" t="s">
+        <v>77</v>
+      </c>
+      <c r="M246">
+        <v>7</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246">
+        <v>165</v>
+      </c>
+      <c r="P246">
+        <v>1.3</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247">
+        <v>75</v>
+      </c>
+      <c r="C247" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" t="s">
+        <v>71</v>
+      </c>
+      <c r="E247" t="s">
+        <v>215</v>
+      </c>
+      <c r="F247" t="s">
+        <v>137</v>
+      </c>
+      <c r="G247" t="s">
+        <v>83</v>
+      </c>
+      <c r="H247" t="s">
+        <v>85</v>
+      </c>
+      <c r="L247" s="1">
+        <v>43236</v>
       </c>
     </row>
   </sheetData>
@@ -22438,24 +28123,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
